--- a/data/score_based_ghdata_binary.xlsx
+++ b/data/score_based_ghdata_binary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livememphis-my.sharepoint.com/personal/gszwbwsk_memphis_edu/Documents/Machine Learning/ph4_classification/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{EFCF6696-F0AE-4F66-B4A9-2C72E5792FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82227126-360D-440A-A184-73732570FD92}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{EFCF6696-F0AE-4F66-B4A9-2C72E5792FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0DD2EF3-885E-49E0-8964-37F11C403A51}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="score_based_ghdata_binary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="49">
   <si>
     <t>Receptor</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>features</t>
+  </si>
+  <si>
+    <t>Hits</t>
+  </si>
+  <si>
+    <t>s_score</t>
   </si>
 </sst>
 </file>
@@ -1012,15 +1018,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC53"/>
+  <dimension ref="A1:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2:AC53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,88 +1034,94 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>45</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1117,40 +1129,40 @@
         <v>27</v>
       </c>
       <c r="C2">
+        <v>-0.2</v>
+      </c>
+      <c r="D2">
+        <v>170</v>
+      </c>
+      <c r="E2">
         <v>1.8537556559999999</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>14.777996999999999</v>
       </c>
-      <c r="E2">
+      <c r="G2">
         <v>1.4728123</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>8.9583949999999994</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>10.749083000000001</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>5.0763645000000004</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>7.9048389999999999</v>
       </c>
-      <c r="J2">
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1162,27 +1174,27 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <f>SUM(J2:Q2)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <f>IF(OR(J2=R2,K2=R2,L2=R2,M2=R2,N2=R2,O2=R2,P2=R2,Q2=R2),1,0)</f>
         <v>0</v>
       </c>
       <c r="T2">
+        <f>SUM(L2:S2)</f>
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <f>IF(OR(L2=T2,M2=T2,N2=T2,O2=T2,P2=T2,Q2=T2,R2=T2,S2=T2),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U2">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V2">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -1193,15 +1205,21 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="s">
         <v>28</v>
       </c>
-      <c r="AC2">
-        <f>IF(AB2="Quality", 1,0)</f>
+      <c r="AE2">
+        <f>IF(AD2="Quality", 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1209,91 +1227,97 @@
         <v>29</v>
       </c>
       <c r="C3">
+        <v>-2.41703</v>
+      </c>
+      <c r="D3">
+        <v>39</v>
+      </c>
+      <c r="E3">
         <v>2.020118343</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>16.394461</v>
       </c>
-      <c r="E3">
+      <c r="G3">
         <v>1.1645132</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>10.052477</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>10.601196</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>4.5251694000000002</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>8.3221264000000001</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <f t="shared" ref="R3:R53" si="0">SUM(J3:Q3)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S53" si="1">IF(OR(J3=R3,K3=R3,L3=R3,M3=R3,N3=R3,O3=R3,P3=R3,Q3=R3),1,0)</f>
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0.14285714299999999</v>
+        <f t="shared" ref="T3:T53" si="0">SUM(L3:S3)</f>
+        <v>7</v>
       </c>
       <c r="U3">
+        <f t="shared" ref="U3:U53" si="1">IF(OR(L3=T3,M3=T3,N3=T3,O3=T3,P3=T3,Q3=T3,R3=T3,S3=T3),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="W3">
         <v>0.428571429</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AA3">
         <v>0.28571428599999998</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="s">
         <v>30</v>
       </c>
-      <c r="AC3">
-        <f>IF(AB3="Quality", 1,0)</f>
+      <c r="AE3">
+        <f>IF(AD3="Quality", 1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1301,34 +1325,34 @@
         <v>31</v>
       </c>
       <c r="C4">
+        <v>-0.25909100000000002</v>
+      </c>
+      <c r="D4">
+        <v>125</v>
+      </c>
+      <c r="E4">
         <v>1.1905230769999999</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>17.448446000000001</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>0.75093770000000004</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>9.8077916999999992</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>10.749083000000001</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>5.5635157</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>8.1789465000000003</v>
       </c>
-      <c r="J4">
-        <v>7</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -1346,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1377,15 +1401,21 @@
       <c r="AA4">
         <v>0</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="s">
         <v>28</v>
       </c>
-      <c r="AC4">
-        <f t="shared" ref="AC4:AC53" si="2">IF(AB4="Quality", 1,0)</f>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE53" si="2">IF(AD4="Quality", 1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1393,32 +1423,32 @@
         <v>32</v>
       </c>
       <c r="C5">
+        <v>-4.7638499999999997</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>8.7538461539999997</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>4.5955496</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>0.54174345999999995</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <v>2.3033302</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>9.6243925000000008</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>7.7852658999999997</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>8.4230347000000005</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1426,31 +1456,31 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -1458,26 +1488,32 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="s">
         <v>30</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1485,37 +1521,37 @@
         <v>27</v>
       </c>
       <c r="C6">
+        <v>-0.36666700000000002</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>2.2054263569999999</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>11.533735</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>0.65266376999999998</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <v>5.5950651000000002</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>7.7865976999999997</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>3.9519479</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>6.2629485000000003</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>6</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1530,24 +1566,24 @@
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>0.85714285700000004</v>
       </c>
-      <c r="U6">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
       <c r="W6">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1561,15 +1597,21 @@
       <c r="AA6">
         <v>0</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="s">
         <v>30</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1577,37 +1619,37 @@
         <v>29</v>
       </c>
       <c r="C7">
+        <v>-3.0990500000000001</v>
+      </c>
+      <c r="D7">
+        <v>267</v>
+      </c>
+      <c r="E7">
         <v>0.64428185699999996</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>15.958681</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>0.97689557000000005</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>9.7503461999999992</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>11.335112000000001</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>4.6195149000000004</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>7.4904723000000004</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>6</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
       <c r="M7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1622,24 +1664,24 @@
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.85714285700000004</v>
       </c>
-      <c r="U7">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1653,15 +1695,21 @@
       <c r="AA7">
         <v>0</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="s">
         <v>28</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1669,34 +1717,34 @@
         <v>31</v>
       </c>
       <c r="C8">
+        <v>-0.108333</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
         <v>2.2054263569999999</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>14.334533</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>0.65266376999999998</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <v>7.6881456000000004</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>7.7865976999999997</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>5.1793035999999999</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>6.0932545999999999</v>
       </c>
-      <c r="J8">
-        <v>7</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
       <c r="L8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1714,21 +1762,21 @@
         <v>0</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1745,15 +1793,21 @@
       <c r="AA8">
         <v>0</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="s">
         <v>30</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1761,34 +1815,34 @@
         <v>32</v>
       </c>
       <c r="C9">
+        <v>-6.0815999999999999</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
         <v>0.47259136200000001</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>4.2672905999999999</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.71304279999999998</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>2.0596274999999999</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>9.0666437000000002</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>7.2850818999999998</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>8.2762594000000007</v>
       </c>
-      <c r="J9">
-        <v>7</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1806,21 +1860,21 @@
         <v>0</v>
       </c>
       <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1837,15 +1891,21 @@
       <c r="AA9">
         <v>0</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
         <v>28</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1853,37 +1913,37 @@
         <v>27</v>
       </c>
       <c r="C10">
+        <v>-1.30219</v>
+      </c>
+      <c r="D10">
+        <v>561</v>
+      </c>
+      <c r="E10">
         <v>1.0024665260000001</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>12.274061</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>0.92677396999999995</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>6.9155110999999998</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>8.6641616999999993</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>3.7707212000000001</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>5.9358664000000001</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1892,30 +1952,30 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>0.428571429</v>
       </c>
-      <c r="U10">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V10">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W10">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X10">
         <v>0.14285714299999999</v>
@@ -1924,20 +1984,26 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA10">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="AB10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD10" t="s">
         <v>28</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1945,91 +2011,97 @@
         <v>29</v>
       </c>
       <c r="C11">
+        <v>-3.9562900000000001</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>2.2054263569999999</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>7.7615847999999996</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1.0472271</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>3.7594984</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>4.9886173999999999</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>2.2732315000000001</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>3.6270204000000001</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>4</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>2</v>
       </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>0.571428571</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>0.28571428599999998</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="s">
         <v>30</v>
       </c>
-      <c r="AC11">
+      <c r="AE11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2037,41 +2109,41 @@
         <v>31</v>
       </c>
       <c r="C12">
+        <v>-0.31666699999999998</v>
+      </c>
+      <c r="D12">
+        <v>543</v>
+      </c>
+      <c r="E12">
         <v>0.98695875600000005</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>11.444682999999999</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.13321474</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>5.7764958999999996</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>8.0793809999999997</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>3.3560894000000001</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>5.3478794000000001</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
         <v>0</v>
       </c>
@@ -2082,28 +2154,28 @@
         <v>0</v>
       </c>
       <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
       <c r="Y12">
         <v>0</v>
       </c>
@@ -2113,15 +2185,21 @@
       <c r="AA12">
         <v>0</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="s">
         <v>28</v>
       </c>
-      <c r="AC12">
+      <c r="AE12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2129,91 +2207,97 @@
         <v>32</v>
       </c>
       <c r="C13">
+        <v>-4.29678</v>
+      </c>
+      <c r="D13">
+        <v>74</v>
+      </c>
+      <c r="E13">
         <v>0.71527341300000002</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>5.6832441999999999</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>0.20224737000000001</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>3.3891846999999999</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>4.9096827999999997</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>2.6624832</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>3.9307620999999999</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>2</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.28571428599999998</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>0.71428571399999996</v>
       </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
       <c r="AA13">
         <v>0</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="s">
         <v>28</v>
       </c>
-      <c r="AC13">
+      <c r="AE13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2221,43 +2305,43 @@
         <v>27</v>
       </c>
       <c r="C14">
+        <v>-1.12222</v>
+      </c>
+      <c r="D14">
+        <v>70</v>
+      </c>
+      <c r="E14">
         <v>1.1211822659999999</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>10.111151</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>1.5324884999999999</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>6.5251384000000003</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>6.1245970999999999</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>3.827318</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>5.1387</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>3</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>2</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2266,30 +2350,30 @@
         <v>1</v>
       </c>
       <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.428571429</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
       <c r="Y14">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2297,15 +2381,21 @@
       <c r="AA14">
         <v>0.14285714299999999</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD14" t="s">
         <v>28</v>
       </c>
-      <c r="AC14">
+      <c r="AE14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2313,43 +2403,43 @@
         <v>29</v>
       </c>
       <c r="C15">
+        <v>-1.0083299999999999</v>
+      </c>
+      <c r="D15">
+        <v>568</v>
+      </c>
+      <c r="E15">
         <v>1.0017605629999999</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>10.898168999999999</v>
       </c>
-      <c r="E15">
+      <c r="G15">
         <v>2.6907358000000001</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>5.7911672999999997</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>7.1928763</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>2.0663735999999999</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>4.6987486000000001</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>3</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>2</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2358,30 +2448,30 @@
         <v>1</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.428571429</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2389,15 +2479,21 @@
       <c r="AA15">
         <v>0.14285714299999999</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD15" t="s">
         <v>28</v>
       </c>
-      <c r="AC15">
+      <c r="AE15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2405,34 +2501,34 @@
         <v>31</v>
       </c>
       <c r="C16">
+        <v>-0.1</v>
+      </c>
+      <c r="D16">
+        <v>561</v>
+      </c>
+      <c r="E16">
         <v>0.97928575799999995</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>15.153275000000001</v>
       </c>
-      <c r="E16">
+      <c r="G16">
         <v>1.1655952000000001</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>7.6671844</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>10.404747</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>4.6175465999999998</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>7.6230568999999999</v>
       </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2450,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2481,15 +2577,21 @@
       <c r="AA16">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="s">
         <v>28</v>
       </c>
-      <c r="AC16">
+      <c r="AE16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2497,34 +2599,34 @@
         <v>32</v>
       </c>
       <c r="C17">
+        <v>-3.72357</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>6.5402298849999996</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>7.7928762000000003</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>0.87605708999999998</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>4.7681006999999997</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>9.8637495000000008</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>3.6521754</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>6.3554143999999999</v>
       </c>
-      <c r="J17">
-        <v>7</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2542,21 +2644,21 @@
         <v>0</v>
       </c>
       <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
       <c r="V17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2573,15 +2675,21 @@
       <c r="AA17">
         <v>0</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="s">
         <v>30</v>
       </c>
-      <c r="AC17">
+      <c r="AE17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2589,40 +2697,40 @@
         <v>27</v>
       </c>
       <c r="C18">
+        <v>-0.58125000000000004</v>
+      </c>
+      <c r="D18">
+        <v>567</v>
+      </c>
+      <c r="E18">
         <v>1.003527337</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>7.9078030999999998</v>
       </c>
-      <c r="E18">
+      <c r="G18">
         <v>1.0460921999999999</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>4.1598309999999996</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>8.6265497</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>1.5762046999999999</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>4.5510963999999996</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -2634,27 +2742,27 @@
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U18">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V18">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W18">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -2665,15 +2773,21 @@
       <c r="AA18">
         <v>0</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="s">
         <v>28</v>
       </c>
-      <c r="AC18">
+      <c r="AE18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2681,91 +2795,97 @@
         <v>29</v>
       </c>
       <c r="C19">
+        <v>-4.9885000000000002</v>
+      </c>
+      <c r="D19">
+        <v>147</v>
+      </c>
+      <c r="E19">
         <v>1.330569728</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>11.595148</v>
       </c>
-      <c r="E19">
+      <c r="G19">
         <v>1.0712174999999999</v>
       </c>
-      <c r="F19">
+      <c r="H19">
         <v>7.6823382000000002</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>8.7283621</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>1.8813845</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>5.9023485000000004</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>4</v>
       </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
       <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="V19">
         <v>0</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
         <v>0.571428571</v>
       </c>
-      <c r="Y19">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
       <c r="AA19">
         <v>0.14285714299999999</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD19" t="s">
         <v>28</v>
       </c>
-      <c r="AC19">
+      <c r="AE19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2773,34 +2893,34 @@
         <v>31</v>
       </c>
       <c r="C20">
+        <v>-0.106667</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
         <v>2.5401785710000002</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>7.4049953999999998</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>1.1825762</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>3.7679513</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>5.2109952000000002</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>1.5302311</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>3.2058233999999999</v>
       </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
       <c r="L20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -2818,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2849,15 +2969,21 @@
       <c r="AA20">
         <v>0</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
         <v>30</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2865,32 +2991,32 @@
         <v>32</v>
       </c>
       <c r="C21">
+        <v>-6.7496200000000002</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
         <v>3.5562499999999999</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>13.13256</v>
       </c>
-      <c r="E21">
+      <c r="G21">
         <v>0.74627476999999998</v>
       </c>
-      <c r="F21">
+      <c r="H21">
         <v>7.6735892000000003</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>10.533068</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>1.8813845</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>5.3694991999999999</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
       <c r="L21">
         <v>0</v>
       </c>
@@ -2898,31 +3024,31 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
         <v>0</v>
       </c>
@@ -2930,26 +3056,32 @@
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="s">
         <v>30</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2957,37 +3089,37 @@
         <v>27</v>
       </c>
       <c r="C22">
+        <v>-1.04</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>10.586046509999999</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>17.837337000000002</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>2.7120407000000002</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>8.7329845000000006</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>10.064498</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>4.0576905999999999</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>6.9008060000000002</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2996,30 +3128,30 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>0.428571429</v>
       </c>
-      <c r="U22">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V22">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W22">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X22">
         <v>0.14285714299999999</v>
@@ -3028,20 +3160,26 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA22">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="AB22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD22" t="s">
         <v>30</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -3049,91 +3187,97 @@
         <v>29</v>
       </c>
       <c r="C23">
+        <v>-3.1277300000000001</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
         <v>4.5742176280000004</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>15.870665000000001</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>2.4395158000000001</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>8.8029574999999998</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>10.369191000000001</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>4.0576905999999999</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>7.7215284999999998</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>2</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>3</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T23">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
         <v>0.428571429</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="AB23" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD23" t="s">
         <v>30</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3141,91 +3285,97 @@
         <v>31</v>
       </c>
       <c r="C24">
+        <v>-1.5779000000000001</v>
+      </c>
+      <c r="D24">
+        <v>325</v>
+      </c>
+      <c r="E24">
         <v>1.0993202150000001</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>15.437044</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>0.66412967000000001</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>8.0906096000000005</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>9.3597488000000002</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>6.8909693000000001</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>7.9228744999999998</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2</v>
       </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
       <c r="M24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>1</v>
       </c>
       <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
       <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>0.28571428599999998</v>
       </c>
-      <c r="U24">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V24">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W24">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X24">
         <v>0.14285714299999999</v>
       </c>
       <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AA24">
         <v>0.28571428599999998</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
         <v>28</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3233,91 +3383,97 @@
         <v>32</v>
       </c>
       <c r="C25">
+        <v>-6.3541100000000004</v>
+      </c>
+      <c r="D25">
+        <v>38</v>
+      </c>
+      <c r="E25">
         <v>0.34822521400000001</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>4.6383209000000001</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>0.57491391999999997</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>2.0955460000000001</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>9.4101838999999998</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>8.1397037999999995</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>8.8508204999999993</v>
       </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
         <v>6</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
       <c r="V25">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>0.85714285700000004</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
       <c r="AA25">
         <v>0</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="s">
         <v>28</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3325,91 +3481,97 @@
         <v>27</v>
       </c>
       <c r="C26">
+        <v>-0.45</v>
+      </c>
+      <c r="D26">
+        <v>567</v>
+      </c>
+      <c r="E26">
         <v>1.003527337</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>6.3716473999999996</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>1.1668242</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>2.8200796000000001</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>7.8244381000000001</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>5.3252153</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>6.4776224999999998</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>5</v>
       </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U26">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="s">
         <v>28</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3417,91 +3579,97 @@
         <v>29</v>
       </c>
       <c r="C27">
+        <v>-4.2615299999999996</v>
+      </c>
+      <c r="D27">
+        <v>499</v>
+      </c>
+      <c r="E27">
         <v>1.073205234</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>10.122565</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>0.71503024999999998</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>3.9901295000000001</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>8.1258125000000003</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>4.5861124999999996</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>6.9808288000000003</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>5</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>0.28571428599999998</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
         <v>0.71428571399999996</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
       <c r="AA27">
         <v>0</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="s">
         <v>28</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3509,91 +3677,97 @@
         <v>31</v>
       </c>
       <c r="C28">
+        <v>-1.6064000000000001</v>
+      </c>
+      <c r="D28">
+        <v>563</v>
+      </c>
+      <c r="E28">
         <v>1.010657194</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>11.866706000000001</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>1.1679881000000001</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>7.4726090000000003</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>8.2246541999999998</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>5.3701162</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>6.6177396999999996</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>4</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>0.571428571</v>
       </c>
-      <c r="U28">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
       <c r="W28">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X28">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="s">
         <v>28</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -3601,91 +3775,97 @@
         <v>32</v>
       </c>
       <c r="C29">
+        <v>-4.0392799999999998</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>2.7892156859999999</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>10.004568000000001</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>0.65828489999999995</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>4.0087913999999998</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>8.1754122000000002</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>4.5861124999999996</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>7.0560001999999997</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>3</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
         <v>4</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
       <c r="Q29">
         <v>0</v>
       </c>
       <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>0.428571429</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
         <v>0.571428571</v>
       </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
       <c r="AA29">
         <v>0</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
         <v>30</v>
       </c>
-      <c r="AC29">
+      <c r="AE29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -3693,40 +3873,40 @@
         <v>27</v>
       </c>
       <c r="C30">
+        <v>-0.57333299999999998</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
         <v>4.9478260870000002</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>15.214639999999999</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>1.5312703999999999</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>9.8374758</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>8.7211590000000001</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>3.4673227999999998</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>7.0555687000000002</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
       <c r="M30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -3738,27 +3918,27 @@
         <v>0</v>
       </c>
       <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U30">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V30">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W30">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -3769,15 +3949,21 @@
       <c r="AA30">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="s">
         <v>30</v>
       </c>
-      <c r="AC30">
+      <c r="AE30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -3785,91 +3971,97 @@
         <v>29</v>
       </c>
       <c r="C31">
+        <v>-4.6056699999999999</v>
+      </c>
+      <c r="D31">
+        <v>531</v>
+      </c>
+      <c r="E31">
         <v>0.82308469100000003</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>3.3152905000000001</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>0.69825387000000005</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>1.9966233</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>7.0092930999999998</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>4.1757498000000002</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>5.9750484999999998</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
       <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>2</v>
       </c>
-      <c r="O31">
+      <c r="Q31">
         <v>2</v>
       </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
       <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
         <v>0.428571429</v>
       </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
       <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
         <v>0.28571428599999998</v>
       </c>
-      <c r="Y31">
+      <c r="AA31">
         <v>0.28571428599999998</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="s">
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="s">
         <v>28</v>
       </c>
-      <c r="AC31">
+      <c r="AE31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -3877,35 +4069,35 @@
         <v>31</v>
       </c>
       <c r="C32">
+        <v>-2.9034499999999999</v>
+      </c>
+      <c r="D32">
+        <v>16</v>
+      </c>
+      <c r="E32">
         <v>2.0615942029999998</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>15.070384000000001</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>1.5312703999999999</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>8.3672552000000007</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>8.7211590000000001</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>3.4673227999999998</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>6.9742999000000001</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
       <c r="M32">
         <v>0</v>
       </c>
@@ -3916,28 +4108,28 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
         <v>0</v>
       </c>
       <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W32">
         <v>0</v>
       </c>
@@ -3948,20 +4140,26 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA32">
         <v>0</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="s">
         <v>30</v>
       </c>
-      <c r="AC32">
+      <c r="AE32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3969,32 +4167,32 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>-6.7267900000000003</v>
       </c>
       <c r="D33">
+        <v>-99999</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
         <v>4.8662828999999999</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>0.12852801</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>2.7626727</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>8.7238282999999992</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>6.04603</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>7.4878111000000001</v>
       </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
       <c r="L33">
         <v>0</v>
       </c>
@@ -4002,31 +4200,31 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q33">
         <v>0</v>
       </c>
       <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
@@ -4034,26 +4232,32 @@
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
-      <c r="AB33" t="s">
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="s">
         <v>28</v>
       </c>
-      <c r="AC33">
+      <c r="AE33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -4061,91 +4265,97 @@
         <v>27</v>
       </c>
       <c r="C34">
+        <v>-0.94722200000000001</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
         <v>10.73584906</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>10.727706</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>0.15925643</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>6.1530848000000002</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>10.159136</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>2.6983022999999999</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>5.5574621999999998</v>
       </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
         <v>3</v>
       </c>
-      <c r="L34">
+      <c r="N34">
         <v>2</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
       <c r="O34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="U34">
+      <c r="V34">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="W34">
         <v>0.428571429</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
       <c r="Y34">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
         <v>30</v>
       </c>
-      <c r="AC34">
+      <c r="AE34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -4153,91 +4363,97 @@
         <v>29</v>
       </c>
       <c r="C35">
+        <v>-0.94</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
         <v>10.73584906</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>16.428481999999999</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>0.15925643</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>6.4405903999999996</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>9.6859397999999999</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>2.6983022999999999</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>5.0900803000000003</v>
       </c>
-      <c r="J35">
-        <v>1</v>
-      </c>
-      <c r="K35">
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
         <v>3</v>
       </c>
-      <c r="L35">
+      <c r="N35">
         <v>2</v>
       </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T35">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="U35">
+      <c r="V35">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="W35">
         <v>0.428571429</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>0.28571428599999998</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
       <c r="Y35">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z35">
         <v>0</v>
       </c>
       <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35" t="s">
         <v>30</v>
       </c>
-      <c r="AC35">
+      <c r="AE35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -4245,34 +4461,34 @@
         <v>31</v>
       </c>
       <c r="C36">
+        <v>-0.1</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
         <v>4.2943396229999999</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>11.568930999999999</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>1.6943507</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>6.4211201999999998</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>7.7574310000000004</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>2.4160341999999999</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>5.8892569999999997</v>
       </c>
-      <c r="J36">
-        <v>7</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
       <c r="L36">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4290,21 +4506,21 @@
         <v>0</v>
       </c>
       <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
         <v>0</v>
@@ -4321,15 +4537,21 @@
       <c r="AA36">
         <v>0</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="s">
         <v>30</v>
       </c>
-      <c r="AC36">
+      <c r="AE36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -4337,34 +4559,34 @@
         <v>32</v>
       </c>
       <c r="C37">
+        <v>-4.5199999999999996</v>
+      </c>
+      <c r="D37">
+        <v>316</v>
+      </c>
+      <c r="E37">
         <v>0.67948411799999997</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>3.8346646</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>0.58669280999999995</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>2.080905</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>8.5574779999999997</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>5.6529856000000001</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>6.8281894000000003</v>
       </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
       <c r="L37">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -4382,21 +4604,21 @@
         <v>0</v>
       </c>
       <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>0</v>
@@ -4413,15 +4635,21 @@
       <c r="AA37">
         <v>0</v>
       </c>
-      <c r="AB37" t="s">
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="s">
         <v>28</v>
       </c>
-      <c r="AC37">
+      <c r="AE37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -4429,35 +4657,35 @@
         <v>27</v>
       </c>
       <c r="C38">
+        <v>-0.1125</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
         <v>1.996491228</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>11.474065</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>0.73048930999999995</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>6.071701</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>8.1142196999999996</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>3.9042709000000002</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>5.4245868000000002</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>6</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
       <c r="M38">
         <v>0</v>
       </c>
@@ -4465,31 +4693,31 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38">
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <v>0.85714285700000004</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
       <c r="W38">
         <v>0</v>
       </c>
@@ -4497,23 +4725,29 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="s">
         <v>28</v>
       </c>
-      <c r="AC38">
+      <c r="AE38">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -4521,35 +4755,35 @@
         <v>29</v>
       </c>
       <c r="C39">
+        <v>-0.114286</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
         <v>1.8149920260000001</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>11.073898</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>1.4545701</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>6.2192340000000002</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>6.7439736999999997</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>3.9042709000000002</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>5.2322116000000003</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>6</v>
       </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
       <c r="M39">
         <v>0</v>
       </c>
@@ -4557,31 +4791,31 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39">
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <v>0.85714285700000004</v>
       </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
       <c r="W39">
         <v>0</v>
       </c>
@@ -4589,23 +4823,29 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="s">
         <v>28</v>
       </c>
-      <c r="AC39">
+      <c r="AE39">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>41</v>
       </c>
@@ -4613,91 +4853,97 @@
         <v>31</v>
       </c>
       <c r="C40">
+        <v>-1.65</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
         <v>4.99122807</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>15.036624</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>1.1693492000000001</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>8.0140838999999993</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>8.9300785000000005</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>3.1334168999999998</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>5.8112472999999998</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>4</v>
       </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
       <c r="M40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
+        <v>0</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <v>0.571428571</v>
       </c>
-      <c r="U40">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V40">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W40">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y40">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="s">
         <v>30</v>
       </c>
-      <c r="AC40">
+      <c r="AE40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -4705,91 +4951,97 @@
         <v>32</v>
       </c>
       <c r="C41">
+        <v>-5.9171800000000001</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
         <v>0.93585526299999999</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>9.3572349999999993</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>0.72479378999999999</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>5.2971921000000002</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>10.277767000000001</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>8.2165174000000007</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>9.4009093999999997</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>4</v>
       </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <v>0.571428571</v>
       </c>
-      <c r="U41">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V41">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W41">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y41">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="s">
         <v>28</v>
       </c>
-      <c r="AC41">
+      <c r="AE41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -4797,91 +5049,97 @@
         <v>27</v>
       </c>
       <c r="C42">
+        <v>-2.11646</v>
+      </c>
+      <c r="D42">
+        <v>136</v>
+      </c>
+      <c r="E42">
         <v>1.2873303169999999</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>10.514849999999999</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>1.1513682999999999</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>4.4728374000000004</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>7.8259100999999998</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>4.9590192000000002</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>6.0429668000000003</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>3</v>
       </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <v>0.428571429</v>
       </c>
-      <c r="U42">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
       <c r="W42">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X42">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA42">
         <v>0.14285714299999999</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB42">
+        <v>0</v>
+      </c>
+      <c r="AC42">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD42" t="s">
         <v>28</v>
       </c>
-      <c r="AC42">
+      <c r="AE42">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -4889,91 +5147,97 @@
         <v>29</v>
       </c>
       <c r="C43">
+        <v>-4.4393099999999999</v>
+      </c>
+      <c r="D43">
+        <v>7</v>
+      </c>
+      <c r="E43">
         <v>1.245956064</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>9.0188626999999997</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>0.13442852</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>5.3494476999999998</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>5.878253</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>4.3015927999999999</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>5.4467068000000003</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>2</v>
       </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
       <c r="M43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <v>0.28571428599999998</v>
       </c>
-      <c r="U43">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
       <c r="W43">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
         <v>0.428571429</v>
       </c>
-      <c r="Y43">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
       <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="s">
         <v>28</v>
       </c>
-      <c r="AC43">
+      <c r="AE43">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4981,43 +5245,43 @@
         <v>31</v>
       </c>
       <c r="C44">
+        <v>-0.62142900000000001</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
         <v>5.8358974359999998</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>6.1818871</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>1.3398620000000001</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>3.6427586000000001</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>7.8259100999999998</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>3.61043</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>5.6616172999999996</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>3</v>
       </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -5026,30 +5290,30 @@
         <v>1</v>
       </c>
       <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <v>0.428571429</v>
       </c>
-      <c r="U44">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V44">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W44">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X44">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y44">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -5057,15 +5321,21 @@
       <c r="AA44">
         <v>0.14285714299999999</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AB44">
+        <v>0</v>
+      </c>
+      <c r="AC44">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AD44" t="s">
         <v>30</v>
       </c>
-      <c r="AC44">
+      <c r="AE44">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5073,32 +5343,32 @@
         <v>32</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-5.8519199999999998</v>
       </c>
       <c r="D45">
+        <v>-99999</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>3.7069923999999999</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>0.16241444999999999</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>1.6350838999999999</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>6.4080300000000001</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>4.4950584999999998</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>5.4569697000000001</v>
       </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
       <c r="L45">
         <v>0</v>
       </c>
@@ -5106,31 +5376,31 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
       <c r="V45">
         <v>0</v>
       </c>
@@ -5138,26 +5408,32 @@
         <v>0</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45">
         <v>0</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="s">
         <v>28</v>
       </c>
-      <c r="AC45">
+      <c r="AE45">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -5165,37 +5441,37 @@
         <v>27</v>
       </c>
       <c r="C46">
+        <v>-0.93571400000000005</v>
+      </c>
+      <c r="D46">
+        <v>34</v>
+      </c>
+      <c r="E46">
         <v>2.9884453780000002</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>11.605651999999999</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>1.1183616999999999</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>5.2936968999999996</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>9.3384333000000002</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>5.8081149999999999</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>7.9662389999999998</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>4</v>
       </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -5204,30 +5480,30 @@
         <v>0</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <v>0.571428571</v>
       </c>
-      <c r="U46">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V46">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W46">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X46">
         <v>0.14285714299999999</v>
@@ -5236,20 +5512,26 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA46">
         <v>0</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="s">
         <v>30</v>
       </c>
-      <c r="AC46">
+      <c r="AE46">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -5257,91 +5539,97 @@
         <v>29</v>
       </c>
       <c r="C47">
+        <v>-3.9382100000000002</v>
+      </c>
+      <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
         <v>2.903061224</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>13.973829</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>1.1623509999999999</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>9.2927932999999996</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>8.8213778000000005</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>5.8081149999999999</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>7.2932652999999998</v>
       </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>4</v>
       </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
       <c r="Q47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="V47">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="W47">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X47">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
         <v>0.571428571</v>
       </c>
-      <c r="Y47">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
       <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47" t="s">
         <v>30</v>
       </c>
-      <c r="AC47">
+      <c r="AE47">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -5349,35 +5637,35 @@
         <v>31</v>
       </c>
       <c r="C48">
+        <v>-1.4618800000000001</v>
+      </c>
+      <c r="D48">
+        <v>108</v>
+      </c>
+      <c r="E48">
         <v>1.1289682539999999</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>14.154366</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>1.2389399000000001</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>9.1620197000000001</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>9.2171097</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>4.8855443000000003</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>7.5467453000000004</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>5</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
       <c r="M48">
         <v>0</v>
       </c>
@@ -5388,28 +5676,28 @@
         <v>0</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48">
         <v>0</v>
       </c>
       <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W48">
         <v>0</v>
       </c>
@@ -5420,20 +5708,26 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="AA48">
         <v>0</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="s">
         <v>28</v>
       </c>
-      <c r="AC48">
+      <c r="AE48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -5441,32 +5735,32 @@
         <v>32</v>
       </c>
       <c r="C49">
+        <v>-5.0614499999999998</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
         <v>10.16071429</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>15.722771</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>1.2191751</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>8.8971949000000006</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>8.4183682999999991</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>3.9128516000000002</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>7.2917008000000001</v>
       </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
       <c r="L49">
         <v>0</v>
       </c>
@@ -5474,31 +5768,31 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
       <c r="V49">
         <v>0</v>
       </c>
@@ -5506,26 +5800,32 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49">
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
         <v>0</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="s">
         <v>30</v>
       </c>
-      <c r="AC49">
+      <c r="AE49">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -5533,91 +5833,97 @@
         <v>27</v>
       </c>
       <c r="C50">
+        <v>-0.66153799999999996</v>
+      </c>
+      <c r="D50">
+        <v>24</v>
+      </c>
+      <c r="E50">
         <v>1.789308176</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>5.9806813999999999</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>0.77097987999999995</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>3.7534003</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>5.4519371999999997</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>2.4798608</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>3.6644494999999999</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>4</v>
       </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <v>0.571428571</v>
       </c>
-      <c r="U50">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V50">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W50">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y50">
-        <v>0.14285714299999999</v>
+        <v>0</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="s">
+        <v>0.14285714299999999</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="s">
         <v>28</v>
       </c>
-      <c r="AC50">
+      <c r="AE50">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -5625,91 +5931,97 @@
         <v>29</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-4.4998300000000002</v>
       </c>
       <c r="D51">
+        <v>-99999</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
         <v>12.728937</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>1.0030782</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>4.7909822000000002</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>7.2324171000000002</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>3.5477997999999999</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>4.7569746999999998</v>
       </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
         <v>6</v>
       </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T51">
-        <v>0</v>
-      </c>
-      <c r="U51">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
         <v>0.85714285700000004</v>
       </c>
-      <c r="Y51">
-        <v>0</v>
-      </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
       <c r="AA51">
         <v>0</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AB51">
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="s">
         <v>28</v>
       </c>
-      <c r="AC51">
+      <c r="AE51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -5717,40 +6029,40 @@
         <v>31</v>
       </c>
       <c r="C52">
+        <v>-0.58947400000000005</v>
+      </c>
+      <c r="D52">
+        <v>544</v>
+      </c>
+      <c r="E52">
         <v>1.0262208660000001</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>7.5264053000000004</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>1.1091302999999999</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>4.4118494999999998</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>5.4519371999999997</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>2.7437242999999998</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>4.1624106999999997</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>5</v>
       </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
       <c r="M52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -5762,27 +6074,27 @@
         <v>0</v>
       </c>
       <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <v>0.71428571399999996</v>
       </c>
-      <c r="U52">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="V52">
-        <v>0.14285714299999999</v>
-      </c>
       <c r="W52">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="X52">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="Y52">
         <v>0</v>
@@ -5793,15 +6105,21 @@
       <c r="AA52">
         <v>0</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52" t="s">
         <v>28</v>
       </c>
-      <c r="AC52">
+      <c r="AE52">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -5809,86 +6127,92 @@
         <v>32</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-4.4649799999999997</v>
       </c>
       <c r="D53">
+        <v>-99999</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
         <v>4.1936970000000002</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>1.0030782</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>2.1991128999999998</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>6.8817434000000004</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>3.4807836999999999</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>4.7927241</v>
       </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
       <c r="L53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
         <v>6</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="T53">
-        <v>0.14285714299999999</v>
-      </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
       <c r="V53">
-        <v>0</v>
+        <v>0.14285714299999999</v>
       </c>
       <c r="W53">
         <v>0</v>
       </c>
       <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
         <v>0.85714285700000004</v>
       </c>
-      <c r="Y53">
-        <v>0</v>
-      </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
       <c r="AA53">
         <v>0</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AB53">
+        <v>0</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53" t="s">
         <v>28</v>
       </c>
-      <c r="AC53">
+      <c r="AE53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
